--- a/tbs_rules.xlsx
+++ b/tbs_rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jzsja\Desktop\TBS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A380E0-667D-4EE3-A7DC-BABAAA2EB62A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99910F69-E82E-49C5-9DA2-3211ABC8969F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5D6ED5EF-E338-46B4-BBAD-29D07D064602}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="15">
   <si>
     <t>Day</t>
   </si>
@@ -463,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA236EFB-A40D-4084-BDA9-030D7A6D5CDC}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="B17" activeCellId="1" sqref="A12:XFD12 B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -540,7 +540,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>50</v>
+        <v>-100</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>13</v>
@@ -560,7 +560,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-50</v>
+        <v>100</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -580,10 +580,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -592,18 +592,18 @@
         <v>25</v>
       </c>
       <c r="F6" s="2">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>100</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -623,24 +623,24 @@
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
       </c>
       <c r="E8">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F8" s="2">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
@@ -649,10 +649,10 @@
         <v>14</v>
       </c>
       <c r="E9">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F9" s="2">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -660,7 +660,7 @@
         <v>6</v>
       </c>
       <c r="B10">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>13</v>
@@ -672,12 +672,12 @@
         <v>25</v>
       </c>
       <c r="F10" s="2">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>100</v>
@@ -692,106 +692,26 @@
         <v>25</v>
       </c>
       <c r="F11" s="2">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B12">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
       </c>
       <c r="E12">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F12" s="2">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13">
-        <v>25</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14">
-        <v>50</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14">
-        <v>25</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15">
-        <v>-50</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15">
-        <v>25</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16">
-        <v>100</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16">
-        <v>50</v>
-      </c>
-      <c r="F16" s="2">
         <v>0.25</v>
       </c>
     </row>
